--- a/CreateBaseDeck/FragilityCurvesData/ProbabilityEachScenario.xlsx
+++ b/CreateBaseDeck/FragilityCurvesData/ProbabilityEachScenario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,34 +525,6 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2045</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.8099999999999999</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2050</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.8099999999999999</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CreateBaseDeck/FragilityCurvesData/ProbabilityEachScenario.xlsx
+++ b/CreateBaseDeck/FragilityCurvesData/ProbabilityEachScenario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,23 +449,15 @@
           <t>S1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>2023</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9239999999999999</v>
+        <v>0.984</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="D2" t="n">
         <v>0.016</v>
       </c>
     </row>
@@ -474,12 +466,9 @@
         <v>2025</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8099999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="C3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D3" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -488,12 +477,9 @@
         <v>2030</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8099999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="C4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D4" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -502,12 +488,9 @@
         <v>2035</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8099999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="C5" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D5" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -516,12 +499,31 @@
         <v>2040</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8099999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="C6" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2050</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C8" t="n">
         <v>0.04</v>
       </c>
     </row>

--- a/CreateBaseDeck/FragilityCurvesData/ProbabilityEachScenario.xlsx
+++ b/CreateBaseDeck/FragilityCurvesData/ProbabilityEachScenario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,15 +449,23 @@
           <t>S1</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>2023</v>
       </c>
       <c r="B2" t="n">
-        <v>0.984</v>
+        <v>0.9239999999999999</v>
       </c>
       <c r="C2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.016</v>
       </c>
     </row>
@@ -466,9 +474,12 @@
         <v>2025</v>
       </c>
       <c r="B3" t="n">
-        <v>0.96</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="C3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -477,9 +488,12 @@
         <v>2030</v>
       </c>
       <c r="B4" t="n">
-        <v>0.96</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="C4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -488,9 +502,12 @@
         <v>2035</v>
       </c>
       <c r="B5" t="n">
-        <v>0.96</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="C5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -499,9 +516,12 @@
         <v>2040</v>
       </c>
       <c r="B6" t="n">
-        <v>0.96</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="C6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -510,9 +530,12 @@
         <v>2045</v>
       </c>
       <c r="B7" t="n">
-        <v>0.96</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="C7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -521,9 +544,12 @@
         <v>2050</v>
       </c>
       <c r="B8" t="n">
-        <v>0.96</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="C8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.04</v>
       </c>
     </row>
